--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT069-002 - Setup Periode Bulanan   - Batalkan Verifikasi.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT069-002 - Setup Periode Bulanan   - Batalkan Verifikasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63947AF8-09D6-49E8-8852-E02B2AC03EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A0F70-FA99-4730-8B11-B5F1D25EA9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,10 +121,10 @@
 Periode Trans : 202305</t>
   </si>
   <si>
-    <t>202305</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
+    <t>202405</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
